--- a/biology/Histoire de la zoologie et de la botanique/Raymond_Vaufrey/Raymond_Vaufrey.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Raymond_Vaufrey/Raymond_Vaufrey.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Raymond Vaufrey, né le 9 avril 1890 à Paris 8e et mort le 23 janvier 1967 à Paris 14e, est un géologue, paléontologue et préhistorien français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Raymond Vaufrey est le fils d'un officier de carrière. Il passe son enfance et son adolescence à Elbeuf en Normandie. Après ses études secondaires, sa famille s'installe à Paris. Après avoir fait son service militaire à Toul, il participe à la Première Guerre mondiale sur ce front. Hospitalisé au Val-de-Grâce, le médecin Louis Capitan, célèbre préhistorien, lui fait connaître la revue L'Anthropologie. Après guerre, il étudie la typologie paléolithique, fréquente l'École du Louvre, s'engage dans la voie des sciences naturelles dont il obtient une licence en 1922. Raymond Vaufrey est ensuite élève de Marcellin Boule dans le laboratoire de Paléontologie du Muséum national d'histoire naturelle où il est le condisciple de Pierre Teilhard de Chardin et Jean Piveteau.
 À la suite de ses missions en Italie, en Sicile et à Malte, il publie en 1928 un ouvrage sur Le Paléolithique italien et soutient en 1929 sa thèse de doctorat, Les éléphants nains des îles méditerranéennes et la question des isthmes pléistocènes, dans laquelle il démontre l'inexistence d'isthmes entre l'Afrique et la Sicile.
